--- a/VersionRecords/Version 5.3.8.1 20170411/版本Bug和特性计划及评审表v5.3.8.1_极光组.xlsx
+++ b/VersionRecords/Version 5.3.8.1 20170411/版本Bug和特性计划及评审表v5.3.8.1_极光组.xlsx
@@ -1038,6 +1038,9 @@
     <xf numFmtId="14" fontId="17" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,9 +1066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1667,10 +1667,12 @@
       <c r="R2" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="102" t="s">
+      <c r="S2" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="90"/>
+      <c r="T2" s="90">
+        <v>10684</v>
+      </c>
       <c r="U2" s="67"/>
       <c r="V2" s="75"/>
       <c r="W2" s="91"/>
@@ -5828,19 +5830,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5878,8 +5880,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5891,8 +5893,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5904,8 +5906,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5917,8 +5919,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5930,8 +5932,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5943,8 +5945,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5956,8 +5958,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5969,8 +5971,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6031,36 +6033,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6345,36 +6347,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6659,36 +6661,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6975,36 +6977,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
